--- a/results/pseudomonas_putida/Zinc_Study/BAR_condition-specific_enrichment_analysis.xlsx
+++ b/results/pseudomonas_putida/Zinc_Study/BAR_condition-specific_enrichment_analysis.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cdm-no_metals_control_Presence" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cdm-EX_zn2_e1-no_metals_zinc_Presence" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cdm-no_metals_control" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cdm-EX_zn2_e1-no_metals_zinc" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,995 +458,995 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S_Purine_Metabolism</t>
+          <t>S_PHAs_Metabolism</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9.166923144076874e-36</v>
+        <v>2.667935065073106e-55</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8888888888888888</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S_Transport__Inner_Membrane</t>
+          <t>S_Fatty_Acid__Biosynthesis</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4.712851542852536e-24</v>
+        <v>4.300328018518656e-17</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5038759689922481</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5038759689922481</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S_Glycine__Serine_and_threonine_metabolism</t>
+          <t>S_Purine_Metabolism</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.425787934174299e-18</v>
+        <v>8.470690657323918e-07</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9565217391304348</v>
+        <v>0.6753246753246753</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9565217391304348</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>S_Lysine_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Biotin_Biosynthesis</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.426707716306016e-18</v>
+        <v>1.101559267938934e-06</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8181818181818182</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8181818181818182</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>S_Iron_uptake_and_metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Folate_Biosynthesis</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7.375912708081534e-18</v>
+        <v>2.759107607485909e-06</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6538461538461539</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6538461538461539</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>S_Pyrimidine_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Terpenoid_backbone_biosynthesis</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7.415528745254961e-15</v>
+        <v>2.759107607485909e-06</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7666666666666667</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7666666666666667</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>S_Oxidative_Phosphorylation</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Nicotinamide_Biosynthesis</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4.406851882099196e-14</v>
+        <v>6.907250488156307e-06</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6041666666666666</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6041666666666666</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>S_Gluconeogenesis</t>
+          <t>S_Glycolysis</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9.344500809217615e-14</v>
+        <v>2.626762056906857e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Folate_Biosynthesis</t>
+          <t>S_TCA_Cycle</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6.961339529014465e-13</v>
+        <v>4.858698332875346e-05</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Peptidoglycan_Biosynthesis</t>
+          <t>S_Glutamate_Metabolism</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7.722888691174862e-13</v>
+        <v>5.876059722359968e-05</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7241379310344828</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7241379310344828</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>S_Fatty_Acid_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Pantothenate_and_CoA_Biosynthesis</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3.84021784399542e-12</v>
+        <v>0.0001080369665979749</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7826086956521739</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7826086956521739</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Pantothenate_and_CoA_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Riboflavin_Metabolism</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5.179945807715721e-12</v>
+        <v>0.0002699074216891186</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Molybdopterin_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__Lipid_A_Biosynthesis</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5.179945807715721e-12</v>
+        <v>0.0002874772111791026</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis</t>
+          <t>S_Gluconeogenesis</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3.542356996348926e-11</v>
+        <v>0.0003285538933915722</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>S_TCA_Cycle</t>
+          <t>S_Arginine_and_Proline_Metabolism</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>6.12080252109654e-11</v>
+        <v>0.000777730124757279</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6785714285714286</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6785714285714286</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Lipid_A_Biosynthesis</t>
+          <t>S_Pentose_Phosphate_Pathway</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>6.34694999203013e-11</v>
+        <v>0.001682020947569161</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9285714285714286</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9285714285714286</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>S_Glycerophospholipid_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__One_Carbon_pool_by_folate</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.55042512149363e-10</v>
+        <v>0.001682020947569161</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6551724137931034</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6551724137931034</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>S_Arginine_and_Proline_Metabolism</t>
+          <t>S_Inorganic_polyphosphates_metabolism</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.55042512149363e-10</v>
+        <v>0.001682020947569161</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6551724137931034</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6551724137931034</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>S_Transport__ABC_system</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Ubiquinone_biosynthesis</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.977086634976373e-10</v>
+        <v>0.001726741517509413</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3312101910828025</v>
+        <v>0.9</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3312101910828025</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>S_Phenylalanine_Tyrosine_Tryptophan_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__LPS_Biosynthesis</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2.258244047420737e-10</v>
+        <v>0.004025841711541586</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7083333333333334</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__One_Carbon_pool_by_folate</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis___Pyrroloquinoline_quinone_biosynthesis</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2.858117949838616e-10</v>
+        <v>0.004195715788086694</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Terpenoid_backbone_biosynthesis</t>
+          <t>S_Glyoxylate_and_dicarboxylate_metabolism</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2.858117949838616e-10</v>
+        <v>0.006094247231581568</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Amines_and_Polyamines_Metabolism</t>
+          <t>S_Fatty_Acid_Metabolism</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4.003759965368977e-10</v>
+        <v>0.006664295964500064</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5102040816326531</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5102040816326531</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Thiamine_Metabolism</t>
+          <t>S_Cell_Envelope_Biosynthesis</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2.119357422350289e-09</v>
+        <v>0.008022974269174216</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Biotin_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Thiamine_Metabolism</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3.006248031949825e-09</v>
+        <v>0.008738444443364439</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.875</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9166666666666666</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>S_Formaldehyde_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__FeS_clusters_metabolism</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3.006248031949825e-09</v>
+        <v>0.008738444443364439</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.875</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9166666666666666</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Riboflavin_Metabolism</t>
+          <t>S_Cell_Envelope_Biosynthesis__Biosynthesis_of_L_glycero_D_manno_heptose__Hep_</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1.569737397487447e-08</v>
+        <v>0.01046064977200454</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Ubiquinone_biosynthesis</t>
+          <t>S_Alternate_Carbon__Ribose_Metabolism</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2.045481369601456e-08</v>
+        <v>0.01046064977200454</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9090909090909091</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>S_Alanine_and_Aspartate_Metabolism</t>
+          <t>S_Pyrimidine_Metabolism</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2.045481369601456e-08</v>
+        <v>0.01654548553475135</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9090909090909091</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>S_Glyoxylate_and_dicarboxylate_metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Molybdopterin_Biosynthesis</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1.076976420163382e-07</v>
+        <v>0.0180158056632558</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8333333333333334</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>S_Transport__Outer_Membrane</t>
+          <t>S_Urea_cycleamino_group_metabolism</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1.792868272522705e-07</v>
+        <v>0.01927788483119189</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Porphyrin_and_Chlorophyll_Metabolism</t>
+          <t>S_Lysine_Metabolism</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>6.742657235776008e-07</v>
+        <v>0.03208424634582333</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4857142857142857</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="E33" t="n">
-        <v>0.4857142857142857</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>S_Glutamate_Metabolism</t>
+          <t>S_Cell_Envelope_Biosynthesis__O_antigen_Biosynthesis</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>7.683153357783722e-07</v>
+        <v>0.03478647305748377</v>
       </c>
       <c r="D34" t="n">
-        <v>0.631578947368421</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E34" t="n">
-        <v>0.631578947368421</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>S_Pentose_Phosphate_Pathway</t>
+          <t>S_Glycine__Serine_and_threonine_metabolism</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>8.581671011046711e-07</v>
+        <v>0.03478647305748377</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__LPS_Biosynthesis</t>
+          <t>S_Aromatic_Compounds_Degradation__Homogentisate_pathway</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>8.581671011046711e-07</v>
+        <v>0.04178531969159377</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Vitamin_B6_Metabolism</t>
+          <t>S_Alanine_and_Aspartate_Metabolism</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>9.196027501978392e-07</v>
+        <v>0.05089620599467427</v>
       </c>
       <c r="D37" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.75</v>
       </c>
       <c r="E37" t="n">
-        <v>0.8888888888888888</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Nicotinamide_Biosynthesis</t>
+          <t>S_Phenylalanine_Tyrosine_Tryptophan_Biosynthesis</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>9.196027501978392e-07</v>
+        <v>0.07665266737372654</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="E38" t="n">
-        <v>0.8888888888888888</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__O_antigen_Biosynthesis</t>
+          <t>S_Alternate_Carbon__Propanoate_Metabolism</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1.258354894794657e-06</v>
+        <v>0.09805390684259846</v>
       </c>
       <c r="D39" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="E39" t="n">
-        <v>0.7142857142857143</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>S_Cell_Envelope_Biosynthesis__Peptidoglycan_Biosynthesis</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3.253508030338452e-06</v>
+        <v>0.1255017270078282</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>S_Glycolysis</t>
+          <t>S_Oxidative_Phosphorylation</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2.134721475442847e-05</v>
+        <v>0.1694023584143425</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E41" t="n">
-        <v>0.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>S_Cysteine_Metabolism</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2.401726991708679e-05</v>
+        <v>0.1814913794794395</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="E42" t="n">
-        <v>0.7777777777777778</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>S_Fatty_Acid__Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3.600082976951121e-05</v>
+        <v>0.1814913794794395</v>
       </c>
       <c r="D43" t="n">
-        <v>0.48</v>
+        <v>0.75</v>
       </c>
       <c r="E43" t="n">
-        <v>0.48</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__D_Amino_acids_Metabolism</t>
+          <t>S_Butanoate_Metabolism</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3.919077061459154e-05</v>
+        <v>0.1819051347538996</v>
       </c>
       <c r="D44" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E44" t="n">
-        <v>0.8571428571428571</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>S_Heavy_Metal_Tolerance</t>
+          <t>S_Starch_and_Sucrose_Metabolism</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4.763118613596017e-05</v>
+        <v>0.2175739875335233</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>S_Pyruvate_Metabolism</t>
+          <t>S_Methionine_Metabolism</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>7.061592985215872e-05</v>
+        <v>0.3130357910843999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="E46" t="n">
-        <v>0.7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Homogentisate_pathway</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Amines_and_Polyamines_Metabolism</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.0001386058294298466</v>
+        <v>0.3202539738236551</v>
       </c>
       <c r="D47" t="n">
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
       <c r="E47" t="n">
-        <v>0.75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Propanoate_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Vitamin_B6_Metabolism</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.0002485312336067752</v>
+        <v>0.3720547022021528</v>
       </c>
       <c r="D48" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8333333333333334</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis___Pyrroloquinoline_quinone_biosynthesis</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Nucleotide_Metabolism</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.0003439130024448311</v>
+        <v>0.3965648691914169</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>S_Nucleotide_Salvage_Pathway</t>
+          <t>S_Heavy_Metal_Tolerance</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.0003439130024448311</v>
+        <v>0.4052768916576718</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Biosynthesis_of_L_glycero_D_manno_heptose__Hep_</t>
+          <t>S_Cysteine_Metabolism</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.0003439130024448311</v>
+        <v>0.4107634690154631</v>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>S_Butanoate_Metabolism</t>
+          <t>S_Formaldehyde_Metabolism</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.0003677829484553664</v>
+        <v>0.4600759885062112</v>
       </c>
       <c r="D52" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="E52" t="n">
-        <v>0.6666666666666666</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__FeS_clusters_metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Ectoine_Metabolism</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.0007718823910872343</v>
+        <v>0.5285178555868864</v>
       </c>
       <c r="D53" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5</v>
       </c>
       <c r="E53" t="n">
-        <v>0.7142857142857143</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1454,383 +1454,383 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.0008993067709328254</v>
+        <v>0.5595382736684673</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="E54" t="n">
-        <v>0.4705882352941176</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>S_Methionine_Metabolism</t>
+          <t>S_Valine__Leucine__and_Isoleucine_Metabolism</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.001226055956269929</v>
+        <v>0.5745110813788372</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="E55" t="n">
-        <v>0.5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>S_Urea_cycleamino_group_metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Porphyrin_and_Chlorophyll_Metabolism</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.003190051824829508</v>
+        <v>0.598452302785805</v>
       </c>
       <c r="D56" t="n">
-        <v>0.4375</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="E56" t="n">
-        <v>0.4375</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Ectoine_Metabolism</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.004101227569072195</v>
+        <v>0.6426195314045278</v>
       </c>
       <c r="D57" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="E57" t="n">
-        <v>0.6666666666666666</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Nucleotide_Metabolism</t>
+          <t>S_Pyruvate_Metabolism</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.00461503050917276</v>
+        <v>0.7702660830840551</v>
       </c>
       <c r="D58" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E58" t="n">
-        <v>0.4615384615384616</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>S_Valine__Leucine__and_Isoleucine_Metabolism</t>
+          <t>S_Nucleotide_Salvage_Pathway</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.008556024938380712</v>
+        <v>0.7702660830840551</v>
       </c>
       <c r="D59" t="n">
-        <v>0.3478260869565217</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E59" t="n">
-        <v>0.3478260869565217</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>S_PHAs_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__D_Amino_acids_Metabolism</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.0105782936987993</v>
+        <v>0.7882502935814305</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E60" t="n">
-        <v>0.4545454545454545</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis</t>
+          <t>S_Glycerophospholipid_Metabolism</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.02041912924388738</v>
+        <v>0.8751825562811906</v>
       </c>
       <c r="D61" t="n">
-        <v>0.6</v>
+        <v>0.3612903225806451</v>
       </c>
       <c r="E61" t="n">
-        <v>0.6</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>S_Plant_growth_promoting</t>
+          <t>S_Sulfur_Metabolism</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.09231705427186429</v>
+        <v>0.8811351192181329</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="E62" t="n">
-        <v>0.5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>S_Inorganic_polyphosphates_metabolism</t>
+          <t>S_Alternate_Carbon</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.09231705427186429</v>
+        <v>0.9442252125085668</v>
       </c>
       <c r="D63" t="n">
-        <v>0.5</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="E63" t="n">
-        <v>0.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.1129275512132352</v>
+        <v>0.9921478743220008</v>
       </c>
       <c r="D64" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="E64" t="n">
-        <v>0.3333333333333333</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Biomass and maintenance functions</t>
+          <t>S_Iron_uptake_and_metabolism</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.136412652767793</v>
+        <v>0.9963897865465935</v>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Dipeptide_Metabolism</t>
+          <t>S_tRNA_Charging</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.1920049909764221</v>
+        <v>0.9998855635754309</v>
       </c>
       <c r="D66" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="E66" t="n">
-        <v>0.3333333333333333</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Ribose_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Dipeptide_Metabolism</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.5198156665424342</v>
+        <v>0.9999291249806639</v>
       </c>
       <c r="D67" t="n">
-        <v>0.2</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="E67" t="n">
-        <v>0.2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>S_Sulfur_Metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.5265673761566481</v>
+        <v>0.9999744254142979</v>
       </c>
       <c r="D68" t="n">
-        <v>0.15</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="E68" t="n">
-        <v>0.15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>S_Starch_and_Sucrose_Metabolism</t>
+          <t>S_Transport__Inner_Membrane</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.5882106838270816</v>
+        <v>0.9999971349658372</v>
       </c>
       <c r="D69" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.2626728110599078</v>
       </c>
       <c r="E69" t="n">
-        <v>0.1428571428571428</v>
+        <v>217</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>S_tRNA_Charging</t>
+          <t>S_Aromatic_Compounds_Degradation__B_Ketoadipate_pathway</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.7088423181583633</v>
+        <v>0.9999985568489721</v>
       </c>
       <c r="D70" t="n">
-        <v>0.1153846153846154</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="E70" t="n">
-        <v>0.1153846153846154</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Phenylacetyl_CoA_Catabolom</t>
+          <t>S_Aromatic_Compounds_Degradation__Toluene_Pathway</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.7791510910276276</v>
+        <v>0.999999820255332</v>
       </c>
       <c r="D71" t="n">
-        <v>0.1</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="E71" t="n">
-        <v>0.1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>S_Xenobiotic_tolerance</t>
+          <t>S_Transport__ABC_system</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.8010747406562626</v>
+        <v>0.9999999996220664</v>
       </c>
       <c r="D72" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.1678832116788321</v>
       </c>
       <c r="E72" t="n">
-        <v>0.09090909090909091</v>
+        <v>137</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__B_Ketoadipate_pathway</t>
+          <t>S_Plant_growth_promoting</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.983710851183331</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>0.03571428571428571</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>0.03571428571428571</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>S_Phosphonate_and_phosphinate_metabolism</t>
+          <t>Aliphatic open-chain ketones metabolism</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -1840,16 +1840,16 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Murein Recycling</t>
+          <t>S_Alternate_Carbon__Fructose_Metabolism</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -1859,16 +1859,16 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Levulinate_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Hydroxy_proline_metabolism</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -1878,16 +1878,16 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>S_Nitrogen_Metabolism</t>
+          <t>S_Aromatic_Compounds_Degradation__Gallic_acid_Metabolism</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -1897,16 +1897,16 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Toluene_Pathway</t>
+          <t>S_Alternate_Carbon__Ascorbate_and_Aldarate_Metabolism</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -1916,16 +1916,16 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Gallic_acid_Metabolism</t>
+          <t>S_Nitrogen_Metabolism</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -1935,16 +1935,16 @@
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Fructose_Metabolism</t>
+          <t>S_Alginate_biosynthesis</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -1954,12 +1954,12 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -1973,16 +1973,16 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Queuosine_biosynthesis</t>
+          <t>S_Alternate_Carbon__Levulinate_Metabolism</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -1992,35 +1992,35 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Aliphatic open-chain ketones metabolism</t>
+          <t>S_Transport__Outer_Membrane</t>
         </is>
       </c>
       <c r="C83" t="n">
         <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>0.1622516556291391</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>302</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>S_Transport__solvent_extrusion</t>
+          <t>S_Phosphonate_and_phosphinate_metabolism</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -2030,16 +2030,16 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Ascorbate_and_Aldarate_Metabolism</t>
+          <t>S_Xenobiotic_tolerance</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>S_Alginate_biosynthesis</t>
+          <t>S_Alternate_Carbon__Butanediol_Metabolism</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -2068,16 +2068,16 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Hydroxy_proline_metabolism</t>
+          <t>S_Transport__solvent_extrusion</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -2087,16 +2087,16 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Nicotinic_acid_pathway</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Queuosine_biosynthesis</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -2106,16 +2106,16 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Butanediol_Metabolism</t>
+          <t>S_Aromatic_Compounds_Degradation__Phenylacetyl_CoA_Catabolom</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -2125,7 +2125,64 @@
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>S_Aromatic_Compounds_Degradation__Nicotinic_acid_pathway</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Extracellular exchange</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.1436781609195402</v>
+      </c>
+      <c r="E91" t="n">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Murein Recycling</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2139,7 +2196,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2171,653 +2228,653 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S_Transport__Inner_Membrane</t>
+          <t>S_PHAs_Metabolism</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.594890366513161e-30</v>
+        <v>3.859077089928522e-70</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5116279069767442</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5116279069767442</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S_Transport__ABC_system</t>
+          <t>S_Fatty_Acid__Biosynthesis</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4.073387521786529e-29</v>
+        <v>1.160043286834194e-19</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4585987261146497</v>
+        <v>0.8266666666666667</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4585987261146497</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S_Purine_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Biotin_Biosynthesis</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.401077943555772e-22</v>
+        <v>4.131553217009547e-08</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6666666666666666</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>S_Oxidative_Phosphorylation</t>
+          <t>S_Fatty_Acid_Metabolism</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8.799511160163346e-19</v>
+        <v>2.912433121449949e-07</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6458333333333334</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6458333333333334</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>S_Iron_uptake_and_metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Terpenoid_backbone_biosynthesis</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.578242856666062e-17</v>
+        <v>3.957405675883763e-06</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5961538461538461</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5961538461538461</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Peptidoglycan_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__Lipid_A_Biosynthesis</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.204096147320769e-14</v>
+        <v>2.086326332981152e-05</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7241379310344828</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7241379310344828</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>S_Fatty_Acid_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Riboflavin_Metabolism</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.038648249551335e-13</v>
+        <v>3.785582974602693e-05</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7826086956521739</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7826086956521739</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Molybdopterin_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Folate_Biosynthesis</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3.497221944708912e-13</v>
+        <v>5.662774080517955e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Ubiquinone_biosynthesis</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.419644198691491e-12</v>
+        <v>0.0002690384500593236</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Lipid_A_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__LPS_Biosynthesis</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4.400602695297655e-12</v>
+        <v>0.0005018496334793126</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9285714285714286</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9285714285714286</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>S_Pyrimidine_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis___Pyrroloquinoline_quinone_biosynthesis</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>9.525166165667264e-12</v>
+        <v>0.001134744806811768</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6333333333333333</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6333333333333333</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Folate_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2.357887685964832e-10</v>
+        <v>0.001239937794783198</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8571428571428571</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Thiamine_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__FeS_clusters_metabolism</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2.677572917671153e-10</v>
+        <v>0.002100706481250754</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Biotin_Biosynthesis</t>
+          <t>S_Oxidative_Phosphorylation</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3.164941726599233e-10</v>
+        <v>0.002705196094361849</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9166666666666666</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>S_TCA_Cycle</t>
+          <t>S_Gluconeogenesis</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3.207453279611593e-10</v>
+        <v>0.003003746964899258</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6071428571428571</v>
+        <v>0.75</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6071428571428571</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>S_Glycerophospholipid_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Molybdopterin_Biosynthesis</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>6.959953445017093e-10</v>
+        <v>0.003085158198042912</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5862068965517241</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5862068965517241</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>S_Alternate_Carbon__Ribose_Metabolism</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.003519877203295101</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
         <v>5</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>S_Lysine_Metabolism</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>1.087671404542539e-09</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>S_Phenylalanine_Tyrosine_Tryptophan_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__Biosynthesis_of_L_glycero_D_manno_heptose__Hep_</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2.064586015973522e-09</v>
+        <v>0.003519877203295101</v>
       </c>
       <c r="D19" t="n">
-        <v>0.625</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0.625</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Riboflavin_Metabolism</t>
+          <t>S_Pentose_Phosphate_Pathway</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2.44235099469019e-09</v>
+        <v>0.005749865760226284</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Terpenoid_backbone_biosynthesis</t>
+          <t>S_Inorganic_polyphosphates_metabolism</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2.652214556945641e-09</v>
+        <v>0.005749865760226284</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9090909090909091</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Ubiquinone_biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__O_antigen_Biosynthesis</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2.652214556945641e-09</v>
+        <v>0.006589873421920476</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9090909090909091</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>S_Transport__Outer_Membrane</t>
+          <t>S_Starch_and_Sucrose_Metabolism</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>6.887122246323687e-09</v>
+        <v>0.006589873421920476</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>S_Formaldehyde_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Thiamine_Metabolism</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1.433081647837422e-08</v>
+        <v>0.01669734359715288</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8333333333333334</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>S_Gluconeogenesis</t>
+          <t>S_TCA_Cycle</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2.623819829119752e-08</v>
+        <v>0.02983567059801679</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7333333333333333</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__O_antigen_Biosynthesis</t>
+          <t>S_Alternate_Carbon__Propanoate_Metabolism</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1.763173578348067e-07</v>
+        <v>0.03968472274942549</v>
       </c>
       <c r="D26" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7142857142857143</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>S_Pentose_Phosphate_Pathway</t>
+          <t>S_Cell_Envelope_Biosynthesis__Peptidoglycan_Biosynthesis</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2.023203957955334e-07</v>
+        <v>0.06781896510927203</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__LPS_Biosynthesis</t>
+          <t>S_Alanine_and_Aspartate_Metabolism</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2.023203957955334e-07</v>
+        <v>0.0779970213365465</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>S_Fatty_Acid__Biosynthesis</t>
+          <t>S_Butanoate_Metabolism</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5.071040088979867e-07</v>
+        <v>0.09052788827331282</v>
       </c>
       <c r="D29" t="n">
-        <v>0.52</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E29" t="n">
-        <v>0.52</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__One_Carbon_pool_by_folate</t>
+          <t>S_Pyrimidine_Metabolism</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2.69837326019747e-06</v>
+        <v>0.09544479437911761</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.42</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7272727272727273</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>S_Alanine_and_Aspartate_Metabolism</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2.69837326019747e-06</v>
+        <v>0.1024477414335478</v>
       </c>
       <c r="D31" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.75</v>
       </c>
       <c r="E31" t="n">
-        <v>0.7272727272727273</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Nicotinamide_Biosynthesis</t>
+          <t>S_Glutamate_Metabolism</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5.950459037196399e-06</v>
+        <v>0.149373821874791</v>
       </c>
       <c r="D32" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="E32" t="n">
-        <v>0.7777777777777778</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>S_Pyruvate_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__One_Carbon_pool_by_folate</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1.793250896499819e-05</v>
+        <v>0.1583187756384959</v>
       </c>
       <c r="D33" t="n">
-        <v>0.7</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E33" t="n">
-        <v>0.7</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__B_Ketoadipate_pathway</t>
+          <t>S_Arginine_and_Proline_Metabolism</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1.795340013906084e-05</v>
+        <v>0.1606142539233837</v>
       </c>
       <c r="D34" t="n">
         <v>0.4285714285714285</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4285714285714285</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>S_Butanoate_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Pantothenate_and_CoA_Biosynthesis</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.0001147090984962469</v>
+        <v>0.1931517693180345</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="E35" t="n">
-        <v>0.6666666666666666</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2825,630 +2882,630 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.0001147090984962469</v>
+        <v>0.1931517693180345</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="E36" t="n">
-        <v>0.6666666666666666</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Biosynthesis_of_L_glycero_D_manno_heptose__Hep_</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Nicotinamide_Biosynthesis</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.000150886160055548</v>
+        <v>0.2171182312279309</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>S_Nucleotide_Salvage_Pathway</t>
+          <t>S_Formaldehyde_Metabolism</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.000150886160055548</v>
+        <v>0.3002918522496896</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis___Pyrroloquinoline_quinone_biosynthesis</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Ectoine_Metabolism</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.000150886160055548</v>
+        <v>0.3899909187500643</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>S_Arginine_and_Proline_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.0001533706046965391</v>
+        <v>0.3899909187500643</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3793103448275862</v>
+        <v>0.5</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3793103448275862</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Porphyrin_and_Chlorophyll_Metabolism</t>
+          <t>S_Purine_Metabolism</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.0002362576772496974</v>
+        <v>0.4370682775850979</v>
       </c>
       <c r="D41" t="n">
-        <v>0.3428571428571429</v>
+        <v>0.3376623376623377</v>
       </c>
       <c r="E41" t="n">
-        <v>0.3428571428571429</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__D_Amino_acids_Metabolism</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.0002886401254941086</v>
+        <v>0.5424759370239742</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5</v>
       </c>
       <c r="E42" t="n">
-        <v>0.7142857142857143</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__FeS_clusters_metabolism</t>
+          <t>S_Glycine__Serine_and_threonine_metabolism</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.0002886401254941086</v>
+        <v>0.5643145166663439</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E43" t="n">
-        <v>0.7142857142857143</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Ectoine_Metabolism</t>
+          <t>S_Pyruvate_Metabolism</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.001881763931151484</v>
+        <v>0.6294215004888142</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6666666666666666</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>S_Glycine__Serine_and_threonine_metabolism</t>
+          <t>S_Nucleotide_Salvage_Pathway</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.002372337065561918</v>
+        <v>0.6294215004888142</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3478260869565217</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3478260869565217</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>S_PHAs_Metabolism</t>
+          <t>S_Aromatic_Compounds_Degradation__B_Ketoadipate_pathway</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.004335757793020784</v>
+        <v>0.6411336884990645</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4545454545454545</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>S_Phenylalanine_Tyrosine_Tryptophan_Biosynthesis</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.007228906921947142</v>
+        <v>0.6883244480771684</v>
       </c>
       <c r="D47" t="n">
-        <v>0.24</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="E47" t="n">
-        <v>0.24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>S_Glutamate_Metabolism</t>
+          <t>S_Glyoxylate_and_dicarboxylate_metabolism</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.01398520672457831</v>
+        <v>0.7447348228165348</v>
       </c>
       <c r="D48" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="E48" t="n">
-        <v>0.3157894736842105</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Pantothenate_and_CoA_Biosynthesis</t>
+          <t>S_Lysine_Metabolism</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.04760128594824128</v>
+        <v>0.7900130002321418</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3076923076923077</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Homogentisate_pathway</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Porphyrin_and_Chlorophyll_Metabolism</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.04982572302195426</v>
+        <v>0.8351118840713248</v>
       </c>
       <c r="D50" t="n">
-        <v>0.375</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="E50" t="n">
-        <v>0.375</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>S_Inorganic_polyphosphates_metabolism</t>
+          <t>S_Methionine_Metabolism</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.0634521643759112</v>
+        <v>0.8807924362690981</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>S_Plant_growth_promoting</t>
+          <t>S_Glycolysis</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.0634521643759112</v>
+        <v>0.882957145292235</v>
       </c>
       <c r="D52" t="n">
-        <v>0.5</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis</t>
+          <t>S_Aromatic_Compounds_Degradation__Homogentisate_pathway</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.09810012267650535</v>
+        <v>0.9044152361845903</v>
       </c>
       <c r="D53" t="n">
-        <v>0.4</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Biomass and maintenance functions</t>
+          <t>S_Glycerophospholipid_Metabolism</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.1110711718188354</v>
+        <v>0.912777099802644</v>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>0.2774193548387097</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>S_Glyoxylate_and_dicarboxylate_metabolism</t>
+          <t>S_Cysteine_Metabolism</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.1404817813326104</v>
+        <v>0.9563535931584929</v>
       </c>
       <c r="D55" t="n">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="E55" t="n">
-        <v>0.25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>S_Sulfur_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Amines_and_Polyamines_Metabolism</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.3863918408230851</v>
+        <v>0.9893219830033967</v>
       </c>
       <c r="D56" t="n">
-        <v>0.15</v>
+        <v>0.175</v>
       </c>
       <c r="E56" t="n">
-        <v>0.15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Ribose_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__D_Amino_acids_Metabolism</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.4450710665173418</v>
+        <v>0.9972064591993731</v>
       </c>
       <c r="D57" t="n">
-        <v>0.2</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E57" t="n">
-        <v>0.2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>S_Methionine_Metabolism</t>
+          <t>S_tRNA_Charging</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.4713145484643114</v>
+        <v>0.9985507029304336</v>
       </c>
       <c r="D58" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="E58" t="n">
-        <v>0.1428571428571428</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>S_Starch_and_Sucrose_Metabolism</t>
+          <t>S_Transport__Inner_Membrane</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.4713145484643114</v>
+        <v>0.999324626107034</v>
       </c>
       <c r="D59" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.2304147465437788</v>
       </c>
       <c r="E59" t="n">
-        <v>0.1428571428571428</v>
+        <v>217</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>S_Glycolysis</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.5079431920144664</v>
+        <v>0.9993645902063812</v>
       </c>
       <c r="D60" t="n">
-        <v>0.125</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="E60" t="n">
-        <v>0.125</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Phenylacetyl_CoA_Catabolom</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.6683964056299119</v>
+        <v>0.9994940252310389</v>
       </c>
       <c r="D61" t="n">
-        <v>0.1</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="E61" t="n">
-        <v>0.1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>S_tRNA_Charging</t>
+          <t>S_Iron_uptake_and_metabolism</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.8017103084239966</v>
+        <v>0.9997224820899787</v>
       </c>
       <c r="D62" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="E62" t="n">
-        <v>0.07692307692307693</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>S_Urea_cycleamino_group_metabolism</t>
+          <t>S_Transport__ABC_system</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.848400002267701</v>
+        <v>0.9997403021798877</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0625</v>
+        <v>0.1970802919708029</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0625</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>S_Histidine_Metabolism</t>
+          <t>S_Transport__solvent_extrusion</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.8652869522674416</v>
+        <v>0.9999634343697841</v>
       </c>
       <c r="D64" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="E64" t="n">
-        <v>0.05882352941176471</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>S_Heavy_Metal_Tolerance</t>
+          <t>S_Aromatic_Compounds_Degradation__Toluene_Pathway</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.9253869657127876</v>
+        <v>0.9999924812676502</v>
       </c>
       <c r="D65" t="n">
-        <v>0.04545454545454546</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="E65" t="n">
-        <v>0.04545454545454546</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Amines_and_Polyamines_Metabolism</t>
+          <t>S_Heavy_Metal_Tolerance</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.9781616945202706</v>
+        <v>0.9999965940048678</v>
       </c>
       <c r="D66" t="n">
-        <v>0.04081632653061224</v>
+        <v>0.03125</v>
       </c>
       <c r="E66" t="n">
-        <v>0.04081632653061224</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>S_Nitrogen_Metabolism</t>
+          <t>S_Transport__Outer_Membrane</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>0.9999999999925251</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>0.1622516556291391</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>302</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Murein Recycling</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>0.1494252873563219</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>348</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Nicotinic_acid_pathway</t>
+          <t>S_Sulfur_Metabolism</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -3458,16 +3515,16 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>S_Phosphonate_and_phosphinate_metabolism</t>
+          <t>S_Plant_growth_promoting</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -3477,12 +3534,12 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -3496,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>S_Xenobiotic_tolerance</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Hydroxy_proline_metabolism</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -3515,16 +3572,16 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Toluene_Pathway</t>
+          <t>S_Alternate_Carbon__Fructose_Metabolism</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -3534,16 +3591,16 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Fructose_Metabolism</t>
+          <t>S_Aromatic_Compounds_Degradation__Gallic_acid_Metabolism</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -3553,16 +3610,16 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>S_Cysteine_Metabolism</t>
+          <t>S_Alternate_Carbon__Ascorbate_and_Aldarate_Metabolism</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -3572,16 +3629,16 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Cellulose_Metabolism</t>
+          <t>S_Aromatic_Compounds_Degradation__Phenylacetyl_CoA_Catabolom</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -3591,16 +3648,16 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Queuosine_biosynthesis</t>
+          <t>S_Alternate_Carbon</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -3610,12 +3667,12 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -3629,16 +3686,16 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>S_Transport__solvent_extrusion</t>
+          <t>S_Nitrogen_Metabolism</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -3648,16 +3705,16 @@
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Ascorbate_and_Aldarate_Metabolism</t>
+          <t>S_Aromatic_Compounds_Degradation__Nicotinic_acid_pathway</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -3667,16 +3724,16 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Nucleotide_Metabolism</t>
+          <t>S_Cell_Envelope_Biosynthesis__Cellulose_Metabolism</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -3686,16 +3743,16 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>S_Alginate_biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Queuosine_biosynthesis</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -3705,16 +3762,16 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Propanoate_Metabolism</t>
+          <t>S_Histidine_Metabolism</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -3724,16 +3781,16 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon</t>
+          <t>S_Alternate_Carbon__Butanediol_Metabolism</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -3743,16 +3800,16 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>S_Valine__Leucine__and_Isoleucine_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Nucleotide_Metabolism</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -3762,16 +3819,16 @@
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Hydroxy_proline_metabolism</t>
+          <t>S_Alginate_biosynthesis</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -3781,16 +3838,16 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Dipeptide_Metabolism</t>
+          <t>S_Valine__Leucine__and_Isoleucine_Metabolism</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -3800,16 +3857,16 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Gallic_acid_Metabolism</t>
+          <t>S_Urea_cycleamino_group_metabolism</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -3819,16 +3876,16 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Butanediol_Metabolism</t>
+          <t>S_Xenobiotic_tolerance</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -3838,7 +3895,64 @@
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>S_Phosphonate_and_phosphinate_metabolism</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Dipeptide_Metabolism</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Murein Recycling</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
